--- a/data3.xlsx
+++ b/data3.xlsx
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>[Average]</t>
+          <t>[avg]</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ai</t>
+          <t xml:space="preserve">   ai</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>literature</t>
+          <t>liter</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,12 +466,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>politics</t>
+          <t>polit</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>scien</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -481,17 +481,17 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>resta</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>max_memory_alloc</t>
+          <t>[mem1]</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>max_memory_reser</t>
+          <t>[mem2]</t>
         </is>
       </c>
     </row>
